--- a/biology/Botanique/Volvocaceae/Volvocaceae.xlsx
+++ b/biology/Botanique/Volvocaceae/Volvocaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Volvocaceae sont une famille d'algues vertes de l'ordre des Chlamydomonadales selon AlgaeBase                                           (1er avril 2018)[1], selon ITIS      (1er avril 2018)[2] et selon NCBI  (1er avril 2018)[3] mais des Volvocales selon World Register of Marine Species                               (1er avril 2018)[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Volvocaceae sont une famille d'algues vertes de l'ordre des Chlamydomonadales selon AlgaeBase                                           (1er avril 2018), selon ITIS      (1er avril 2018) et selon NCBI  (1er avril 2018) mais des Volvocales selon World Register of Marine Species                               (1er avril 2018). 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Volvox qui vient du latin volvo, « je roule » (infinitif volvere « rouler, tourner »), en référence à la forme en boule de l'algue[5]. La marque d'automobiles suédoises Volvo a la même étymologie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Volvox qui vient du latin volvo, « je roule » (infinitif volvere « rouler, tourner »), en référence à la forme en boule de l'algue. La marque d'automobiles suédoises Volvo a la même étymologie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (1er avril 2018)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (1er avril 2018) :
 Besseyosphaera W.R.Shaw
 Campbellosphaera W.Shaw
 Colemanosphaera Nozaki
